--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2623.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2623.xlsx
@@ -354,7 +354,7 @@
         <v>1.661975196820945</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.726881223004685</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2623.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2623.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7878030630210641</v>
+        <v>1.272399544715881</v>
       </c>
       <c r="B1">
-        <v>1.661975196820945</v>
+        <v>2.312768936157227</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.852398872375488</v>
       </c>
       <c r="D1">
-        <v>1.726881223004685</v>
+        <v>2.807035684585571</v>
       </c>
       <c r="E1">
-        <v>0.9056543007406382</v>
+        <v>1.347347021102905</v>
       </c>
     </row>
   </sheetData>
